--- a/01_FileNameSearch/01_FileNameSearch_TestCase.xlsx
+++ b/01_FileNameSearch/01_FileNameSearch_TestCase.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\01_FileNameSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD6337-4C6E-4867-922B-87E700015C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ED121F-FC7C-4668-B872-93670489EBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="3" r:id="rId1"/>
-    <sheet name="結合試験仕様書" sheetId="1" r:id="rId2"/>
-    <sheet name="証跡" sheetId="6" r:id="rId3"/>
+    <sheet name="結合試験仕様書(Ver0.0.1)" sheetId="1" r:id="rId2"/>
+    <sheet name="総合試験仕様書 (ver0.0.2)" sheetId="7" r:id="rId3"/>
+    <sheet name="証跡" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">結合試験仕様書!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'結合試験仕様書(Ver0.0.1)'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'総合試験仕様書 (ver0.0.2)'!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>結合試験仕様書</t>
     <rPh sb="0" eb="2">
@@ -628,16 +630,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヨウス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験証跡</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,6 +720,457 @@
   </si>
   <si>
     <t>2023/1～2026/1まで参画中の現場で使用されていた試験項目をもとに作成しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合試験仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver0.0.2をGit HubにPushするにあたり、総合試験を行う。</t>
+    <rPh sb="28" eb="30">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デフォルトの検索フォルダ（カレントディレクトリ）を画面に表示すること
+・デフォルト検索フォルダに対して検索が実行できること</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.2修正内容：検索対象のディレクトリの末尾が\の場合、検索できない事象を修正。また検索失敗時のエラーハンドリング処理を追加。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・検索成功時に直下と配下のファイルが検索可能であること
+・検索失敗時にエラーコードを表示すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本試験項目作成所要時間：約１０分</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験証跡(ver0.0.1)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験証跡(ver0.0.2)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ディレクトリの末尾が\で終了していても、検索が実行することができること
+・パラメータ指定のフォルダがダブルクォーティングされていても検索できること</t>
+    <rPh sb="8" eb="10">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・検索結果０件時の処理結果が表示できること
+・検索結果１件以上の時の処理結果が表示できること
+・検索失敗時にエラーコードを表示すること</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)"C:\Program Files (x86)\"が指定されると、(x86)がif文の()扱いになり、バッチがクラッシュした。複数行のif分ではなく、goto文を使用したワンライナーの記述に変更。
+2)C:\Program Files (x86)が指定されると半角スペースがあるためパラメータ二つに分解される⇒呼び出しパラメータの問題である。ただし、ダブルクォートしてくださいとメッセージを追加する。</t>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)検索結果0のときに異常コード１が返却されるので処理修正
+2)検索失敗時のエラーハンドリングでif文がフォールスルーしてしまうため、goto分処理追加</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本試験項目実施およびコード修正時間：約５時間</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルクォーテーションあり かつ￥あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルクォーテーションなし かつ￥あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索0件</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索１件以上</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索失敗（ソースコード書き換えて強制的に失敗させた様子）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再検索成功</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再検索失敗（ソースコードを書き換え疑似的に出力）</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ギジテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -987,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1479,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1081,14 +1530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,6 +1951,402 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D63ABC6-D221-9738-DFF2-7614C2D7693D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="46196250"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E3F34C-0F1E-F052-4E72-749E41537666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="51196875"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>674894</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>201172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22C14F5-CF84-6D4D-DF4D-4B811FCA333F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="55065707"/>
+          <a:ext cx="8877600" cy="3495700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE35D2F-70AF-D4CD-11C6-1E7EAEC54FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="60007500"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAF6BB3-4B7E-A5B8-342B-70ACE3CC2E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="65008125"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44152C89-C3FC-1856-4332-225CE0912FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="69770625"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F7F66C-6C7C-8CCB-064E-28828DF6318F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="74533125"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD1AE06-E49E-641D-1CD8-825E4B0392BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="79533750"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675162</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95313B62-CC48-3DEC-E2D4-1FD33DFBE7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="84534375"/>
+          <a:ext cx="8904762" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1827,43 +2669,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C4D912-FB0C-467C-8184-F29F37E3D1EC}">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
-        <v>50</v>
+      <c r="B2" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2748,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2"/>
@@ -1915,7 +2757,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2"/>
@@ -1963,58 +2805,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="33">
         <v>46020</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="17"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="18"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
@@ -2034,114 +2876,114 @@
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="33">
         <v>46020</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>47</v>
+      <c r="J13" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="17"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="17"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="18"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="33">
         <v>46020</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="17"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="17"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="18"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
@@ -2161,156 +3003,156 @@
         <v>4</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="28" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="33">
         <v>46020</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="17"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="17"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="17"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="18"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="33">
         <v>46020</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="17"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="17"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="17"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="17"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="18"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
@@ -2330,67 +3172,67 @@
         <v>6</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="25" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="33">
         <v>46020</v>
       </c>
-      <c r="J35" s="16"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="17"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="17"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="17"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="18"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="6"/>
@@ -2410,67 +3252,67 @@
         <v>7</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="28" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="33">
         <v>46020</v>
       </c>
-      <c r="J41" s="16"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="17"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="17"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="17"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="str">
@@ -2534,16 +3376,507 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA811C3-C411-48F6-8CE4-03018FAD0063}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="77.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="33">
+        <v>46021</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="33">
+        <v>46021</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="33">
+        <v>46021</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="33">
+        <v>46021</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="33">
+        <v>46021</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" t="str">
+        <f ca="1">_xlfn.CONCAT("印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
+        <v>印刷日：2025/12/30</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="D13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="D17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="D22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="D29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942FC8EC-2FC4-4386-9B67-A381B217FB17}">
-  <dimension ref="B2:B189"/>
+  <dimension ref="B2:B374"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
@@ -2609,6 +3942,71 @@
     <row r="189" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B192" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B194" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B215" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B234" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B250" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B252" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B271" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B273" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B312" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B332" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B353" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B374" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
